--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ntf3-Ntrk1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ntf3-Ntrk1.xlsx
@@ -528,22 +528,22 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>4.477828666666666</v>
+        <v>5.305917</v>
       </c>
       <c r="H2">
-        <v>13.433486</v>
+        <v>15.917751</v>
       </c>
       <c r="I2">
-        <v>0.4652827882180238</v>
+        <v>0.4336744870332215</v>
       </c>
       <c r="J2">
-        <v>0.4652827882180237</v>
+        <v>0.4336744870332215</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,7 +552,7 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.088493</v>
+        <v>0.08849299999999999</v>
       </c>
       <c r="N2">
         <v>0.265479</v>
@@ -564,16 +564,16 @@
         <v>0.9052313210944106</v>
       </c>
       <c r="Q2">
-        <v>0.3962564921993333</v>
+        <v>0.4695365130809999</v>
       </c>
       <c r="R2">
-        <v>3.566308429794</v>
+        <v>4.225828617728999</v>
       </c>
       <c r="S2">
-        <v>0.4211885530610925</v>
+        <v>0.392575728822024</v>
       </c>
       <c r="T2">
-        <v>0.4211885530610925</v>
+        <v>0.3925757288220239</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>4.477828666666666</v>
+        <v>5.305917</v>
       </c>
       <c r="H3">
-        <v>13.433486</v>
+        <v>15.917751</v>
       </c>
       <c r="I3">
-        <v>0.4652827882180238</v>
+        <v>0.4336744870332215</v>
       </c>
       <c r="J3">
-        <v>0.4652827882180237</v>
+        <v>0.4336744870332215</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.027793</v>
       </c>
       <c r="O3">
+        <v>0.09476867890558938</v>
+      </c>
+      <c r="P3">
         <v>0.09476867890558936</v>
       </c>
-      <c r="P3">
-        <v>0.09476867890558935</v>
-      </c>
       <c r="Q3">
-        <v>0.04148409737755556</v>
+        <v>0.049155783727</v>
       </c>
       <c r="R3">
-        <v>0.373356876398</v>
+        <v>0.442402053543</v>
       </c>
       <c r="S3">
-        <v>0.04409423515693123</v>
+        <v>0.04109875821119756</v>
       </c>
       <c r="T3">
-        <v>0.04409423515693122</v>
+        <v>0.04109875821119754</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>7.585691000000001</v>
       </c>
       <c r="I4">
-        <v>0.2627383137214249</v>
+        <v>0.2066699405724794</v>
       </c>
       <c r="J4">
-        <v>0.2627383137214249</v>
+        <v>0.2066699405724794</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,7 +676,7 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.088493</v>
+        <v>0.08849299999999999</v>
       </c>
       <c r="N4">
         <v>0.265479</v>
@@ -688,16 +688,16 @@
         <v>0.9052313210944106</v>
       </c>
       <c r="Q4">
-        <v>0.2237601845543334</v>
+        <v>0.2237601845543333</v>
       </c>
       <c r="R4">
         <v>2.013841660989</v>
       </c>
       <c r="S4">
-        <v>0.2378389508321632</v>
+        <v>0.1870841033349289</v>
       </c>
       <c r="T4">
-        <v>0.2378389508321631</v>
+        <v>0.1870841033349289</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>7.585691000000001</v>
       </c>
       <c r="I5">
-        <v>0.2627383137214249</v>
+        <v>0.2066699405724794</v>
       </c>
       <c r="J5">
-        <v>0.2627383137214249</v>
+        <v>0.2066699405724794</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,10 +744,10 @@
         <v>0.027793</v>
       </c>
       <c r="O5">
+        <v>0.09476867890558938</v>
+      </c>
+      <c r="P5">
         <v>0.09476867890558936</v>
-      </c>
-      <c r="P5">
-        <v>0.09476867890558935</v>
       </c>
       <c r="Q5">
         <v>0.02342545666255556</v>
@@ -756,10 +756,10 @@
         <v>0.210829109963</v>
       </c>
       <c r="S5">
-        <v>0.02489936288926172</v>
+        <v>0.01958583723755054</v>
       </c>
       <c r="T5">
-        <v>0.02489936288926171</v>
+        <v>0.01958583723755054</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.617494</v>
+        <v>4.400310999999999</v>
       </c>
       <c r="H6">
-        <v>7.852482</v>
+        <v>13.200933</v>
       </c>
       <c r="I6">
-        <v>0.2719788980605514</v>
+        <v>0.359655572394299</v>
       </c>
       <c r="J6">
-        <v>0.2719788980605514</v>
+        <v>0.359655572394299</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,7 +800,7 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.088493</v>
+        <v>0.08849299999999999</v>
       </c>
       <c r="N6">
         <v>0.265479</v>
@@ -812,16 +812,16 @@
         <v>0.9052313210944106</v>
       </c>
       <c r="Q6">
-        <v>0.231629896542</v>
+        <v>0.3893967213229999</v>
       </c>
       <c r="R6">
-        <v>2.084669068878</v>
+        <v>3.504570491906999</v>
       </c>
       <c r="S6">
-        <v>0.2462038172011549</v>
+        <v>0.3255714889374577</v>
       </c>
       <c r="T6">
-        <v>0.2462038172011549</v>
+        <v>0.3255714889374577</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.617494</v>
+        <v>4.400310999999999</v>
       </c>
       <c r="H7">
-        <v>7.852482</v>
+        <v>13.200933</v>
       </c>
       <c r="I7">
-        <v>0.2719788980605514</v>
+        <v>0.359655572394299</v>
       </c>
       <c r="J7">
-        <v>0.2719788980605514</v>
+        <v>0.359655572394299</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,22 +868,22 @@
         <v>0.027793</v>
       </c>
       <c r="O7">
+        <v>0.09476867890558938</v>
+      </c>
+      <c r="P7">
         <v>0.09476867890558936</v>
       </c>
-      <c r="P7">
-        <v>0.09476867890558935</v>
-      </c>
       <c r="Q7">
-        <v>0.024249336914</v>
+        <v>0.04076594787433333</v>
       </c>
       <c r="R7">
-        <v>0.218244032226</v>
+        <v>0.366893530869</v>
       </c>
       <c r="S7">
-        <v>0.02577508085939641</v>
+        <v>0.03408408345684128</v>
       </c>
       <c r="T7">
-        <v>0.02577508085939641</v>
+        <v>0.03408408345684127</v>
       </c>
     </row>
   </sheetData>
